--- a/ig/nr-update-annuaire-dependency/StructureDefinition-pdsm-comprehensive-provide-document-bundle.xlsx
+++ b/ig/nr-update-annuaire-dependency/StructureDefinition-pdsm-comprehensive-provide-document-bundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-11T08:58:45+00:00</t>
+    <t>2023-07-11T09:02:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/nr-update-annuaire-dependency/StructureDefinition-pdsm-comprehensive-provide-document-bundle.xlsx
+++ b/ig/nr-update-annuaire-dependency/StructureDefinition-pdsm-comprehensive-provide-document-bundle.xlsx
@@ -51,7 +51,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-11T09:02:59+00:00</t>
+    <t>2023-07-26T14:54:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -30095,7 +30095,7 @@
         <v>36</v>
       </c>
       <c r="G248" t="s" s="2">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H248" t="s" s="2">
         <v>35</v>

--- a/ig/nr-update-annuaire-dependency/StructureDefinition-pdsm-comprehensive-provide-document-bundle.xlsx
+++ b/ig/nr-update-annuaire-dependency/StructureDefinition-pdsm-comprehensive-provide-document-bundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-26T14:54:45+00:00</t>
+    <t>2023-07-26T15:00:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/nr-update-annuaire-dependency/StructureDefinition-pdsm-comprehensive-provide-document-bundle.xlsx
+++ b/ig/nr-update-annuaire-dependency/StructureDefinition-pdsm-comprehensive-provide-document-bundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-26T15:00:21+00:00</t>
+    <t>2023-07-26T15:44:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/nr-update-annuaire-dependency/StructureDefinition-pdsm-comprehensive-provide-document-bundle.xlsx
+++ b/ig/nr-update-annuaire-dependency/StructureDefinition-pdsm-comprehensive-provide-document-bundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-26T15:44:02+00:00</t>
+    <t>2023-07-27T13:02:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/nr-update-annuaire-dependency/StructureDefinition-pdsm-comprehensive-provide-document-bundle.xlsx
+++ b/ig/nr-update-annuaire-dependency/StructureDefinition-pdsm-comprehensive-provide-document-bundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-27T13:02:42+00:00</t>
+    <t>2023-07-27T13:06:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/nr-update-annuaire-dependency/StructureDefinition-pdsm-comprehensive-provide-document-bundle.xlsx
+++ b/ig/nr-update-annuaire-dependency/StructureDefinition-pdsm-comprehensive-provide-document-bundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-31T15:15:41+00:00</t>
+    <t>2023-08-31T15:17:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
